--- a/data/trans_orig/IP07A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B3C76C2-D2B6-459F-B862-E438E63456A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64FEC51F-2C4A-4933-83F2-640D2D7A1A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A594A863-83C2-4125-84C4-D9461444E499}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D2F826F8-865B-4AB0-9358-737256056EE3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,10 +67,259 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>50,68%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>50,21%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Moderadamente</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
   </si>
   <si>
     <t>3,99%</t>
@@ -100,9 +349,6 @@
     <t>6,16%</t>
   </si>
   <si>
-    <t>Mucho</t>
-  </si>
-  <si>
     <t>35,19%</t>
   </si>
   <si>
@@ -130,9 +376,6 @@
     <t>43,45%</t>
   </si>
   <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
     <t>58,86%</t>
   </si>
   <si>
@@ -160,168 +403,150 @@
     <t>61,78%</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>50,68%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
     <t>2,71%</t>
   </si>
   <si>
@@ -400,229 +625,40 @@
     <t>56,44%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>45,09%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>4,48%</t>
@@ -703,45 +739,207 @@
     <t>55,61%</t>
   </si>
   <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 44,74%)</t>
   </si>
   <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
     <t>4,65%</t>
   </si>
   <si>
@@ -808,9 +1006,6 @@
     <t>43,0%</t>
   </si>
   <si>
-    <t>35,34%</t>
-  </si>
-  <si>
     <t>50,98%</t>
   </si>
   <si>
@@ -823,124 +1018,139 @@
     <t>50,41%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>56,66%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>53,63%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
   </si>
   <si>
     <t>2,15%</t>
@@ -1015,214 +1225,43 @@
     <t>43,9%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
   </si>
   <si>
     <t>6,26%</t>
@@ -1303,54 +1342,216 @@
     <t>45,32%</t>
   </si>
   <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 47,18%)</t>
   </si>
   <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>57,44%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>64,6%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
     <t>3,37%</t>
   </si>
   <si>
-    <t>1,24%</t>
-  </si>
-  <si>
     <t>8,08%</t>
   </si>
   <si>
@@ -1396,9 +1597,6 @@
     <t>70,48%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
     <t>77,8%</t>
   </si>
   <si>
@@ -1420,112 +1618,112 @@
     <t>69,99%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>37,61%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>58,35%</t>
+  </si>
+  <si>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>5,92%</t>
@@ -1600,202 +1798,28 @@
     <t>57,37%</t>
   </si>
   <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>57,44%</t>
-  </si>
-  <si>
-    <t>36,71%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>64,6%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
   </si>
   <si>
     <t>3,53%</t>
@@ -1862,30 +1886,6 @@
   </si>
   <si>
     <t>64,01%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
   </si>
 </sst>
 </file>
@@ -2277,7 +2277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B4F398-2CCB-40B4-8919-4261259016C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF289A5F-5DFE-4FD8-8F17-91290CF15B8B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2395,10 +2395,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3962</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2410,238 +2410,238 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>3589</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>12</v>
-      </c>
-      <c r="N4" s="7">
-        <v>7551</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>34920</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>42584</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>77504</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>58413</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>56643</v>
+        <v>2501</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M6" s="7">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>115057</v>
+        <v>2501</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>1940</v>
+        <v>6011</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>7727</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="N7" s="7">
-        <v>1940</v>
+        <v>13738</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>7805</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>1188</v>
+        <v>4809</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="N8" s="7">
-        <v>1188</v>
+        <v>12614</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2650,306 +2650,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>151</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>99235</v>
+        <v>13816</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
-        <v>164</v>
+        <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>104004</v>
+        <v>15037</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M9" s="7">
-        <v>315</v>
+        <v>37</v>
       </c>
       <c r="N9" s="7">
-        <v>203240</v>
+        <v>28853</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>3443</v>
+        <v>635</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>2078</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="M10" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>5521</v>
+        <v>635</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>28413</v>
+        <v>553</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="H11" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>22624</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>51037</v>
+        <v>553</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>33956</v>
+        <v>3443</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="I12" s="7">
-        <v>24277</v>
+        <v>2078</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="N12" s="7">
-        <v>58233</v>
+        <v>5521</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>635</v>
+        <v>28413</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>22624</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="N13" s="7">
-        <v>635</v>
+        <v>51037</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D14" s="7">
-        <v>553</v>
+        <v>33956</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="7">
+        <v>37</v>
+      </c>
+      <c r="I14" s="7">
+        <v>24277</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" s="7">
         <v>90</v>
       </c>
-      <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1</v>
-      </c>
       <c r="N14" s="7">
-        <v>553</v>
+        <v>58233</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2964,13 @@
         <v>66999</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -2979,13 +2979,13 @@
         <v>48979</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M15" s="7">
         <v>175</v>
@@ -2994,270 +2994,270 @@
         <v>115978</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>6117</v>
+        <v>1940</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="7">
-        <v>8818</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>14935</v>
+        <v>1940</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>35134</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>42016</v>
+        <v>1188</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="M17" s="7">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="N17" s="7">
-        <v>77150</v>
+        <v>1188</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>54746</v>
+        <v>3962</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H18" s="7">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="I18" s="7">
-        <v>40358</v>
+        <v>3589</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="M18" s="7">
-        <v>132</v>
+        <v>12</v>
       </c>
       <c r="N18" s="7">
-        <v>95103</v>
+        <v>7551</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="D19" s="7">
-        <v>1344</v>
+        <v>34920</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="7">
+        <v>68</v>
+      </c>
+      <c r="I19" s="7">
+        <v>42584</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M19" s="7">
         <v>121</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
       <c r="N19" s="7">
-        <v>1344</v>
+        <v>77504</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="D20" s="7">
-        <v>1902</v>
+        <v>58413</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>56643</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>177</v>
       </c>
       <c r="N20" s="7">
-        <v>1902</v>
+        <v>115057</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,54 +3266,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D21" s="7">
-        <v>99242</v>
+        <v>99235</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H21" s="7">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="I21" s="7">
-        <v>91192</v>
+        <v>104004</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M21" s="7">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="N21" s="7">
-        <v>190434</v>
+        <v>203240</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3325,244 +3325,244 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>136</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D23" s="7">
-        <v>6011</v>
+        <v>0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>139</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="H23" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I23" s="7">
-        <v>7727</v>
+        <v>2637</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="M23" s="7">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>13738</v>
+        <v>2637</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>7805</v>
+        <v>1932</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="H24" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>4809</v>
+        <v>2215</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="M24" s="7">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="N24" s="7">
-        <v>12614</v>
+        <v>4147</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>30036</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>22835</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>52870</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>33608</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>33370</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>45</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M26" s="7">
+        <v>107</v>
+      </c>
+      <c r="N26" s="7">
+        <v>66977</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>157</v>
@@ -3574,49 +3574,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="D27" s="7">
-        <v>13816</v>
+        <v>65575</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H27" s="7">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I27" s="7">
-        <v>15037</v>
+        <v>61057</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M27" s="7">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="N27" s="7">
-        <v>28853</v>
+        <v>126632</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,229 +3627,229 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" s="7">
-        <v>1932</v>
+        <v>1344</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>159</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="H28" s="7">
-        <v>4</v>
-      </c>
-      <c r="I28" s="7">
-        <v>2215</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>2</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1344</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="P28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M28" s="7">
-        <v>7</v>
-      </c>
-      <c r="N28" s="7">
-        <v>4147</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>30036</v>
+        <v>1902</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="M29" s="7">
+        <v>3</v>
+      </c>
+      <c r="N29" s="7">
+        <v>1902</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H29" s="7">
-        <v>38</v>
-      </c>
-      <c r="I29" s="7">
-        <v>22835</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="M29" s="7">
-        <v>85</v>
-      </c>
-      <c r="N29" s="7">
-        <v>52870</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="D30" s="7">
-        <v>33608</v>
+        <v>6117</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H30" s="7">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="I30" s="7">
-        <v>33370</v>
+        <v>8818</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="M30" s="7">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="N30" s="7">
-        <v>66977</v>
+        <v>14935</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>35134</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>42016</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>181</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>77150</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>54746</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H32" s="7">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="I32" s="7">
-        <v>2637</v>
+        <v>40358</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>189</v>
@@ -3861,10 +3861,10 @@
         <v>191</v>
       </c>
       <c r="M32" s="7">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="N32" s="7">
-        <v>2637</v>
+        <v>95103</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>192</v>
@@ -3882,49 +3882,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D33" s="7">
-        <v>65575</v>
+        <v>99242</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H33" s="7">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="I33" s="7">
-        <v>61057</v>
+        <v>91192</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M33" s="7">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="N33" s="7">
-        <v>126632</v>
+        <v>190434</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,247 +3935,247 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D34" s="7">
-        <v>15454</v>
+        <v>3919</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="H34" s="7">
-        <v>28</v>
-      </c>
-      <c r="I34" s="7">
-        <v>19202</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>6</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3919</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="M34" s="7">
-        <v>51</v>
-      </c>
-      <c r="N34" s="7">
-        <v>34655</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>200</v>
+        <v>4</v>
       </c>
       <c r="D35" s="7">
-        <v>134513</v>
+        <v>2454</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H35" s="7">
+        <v>6</v>
+      </c>
+      <c r="I35" s="7">
+        <v>3825</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>10</v>
+      </c>
+      <c r="N35" s="7">
+        <v>6279</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="H35" s="7">
-        <v>204</v>
-      </c>
-      <c r="I35" s="7">
-        <v>137786</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M35" s="7">
-        <v>404</v>
-      </c>
-      <c r="N35" s="7">
-        <v>272300</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="D36" s="7">
-        <v>188528</v>
+        <v>15454</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H36" s="7">
+        <v>28</v>
+      </c>
+      <c r="I36" s="7">
+        <v>19202</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>51</v>
+      </c>
+      <c r="N36" s="7">
+        <v>34655</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="H36" s="7">
-        <v>237</v>
-      </c>
-      <c r="I36" s="7">
-        <v>159456</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M36" s="7">
-        <v>522</v>
-      </c>
-      <c r="N36" s="7">
-        <v>347984</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C37" s="7">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="D37" s="7">
-        <v>3919</v>
+        <v>134513</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>52</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H37" s="7">
+        <v>204</v>
+      </c>
+      <c r="I37" s="7">
+        <v>137786</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>404</v>
+      </c>
+      <c r="N37" s="7">
+        <v>272300</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="M37" s="7">
-        <v>6</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3919</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C38" s="7">
-        <v>4</v>
+        <v>285</v>
       </c>
       <c r="D38" s="7">
-        <v>2454</v>
+        <v>188528</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>123</v>
+        <v>224</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H38" s="7">
+        <v>237</v>
+      </c>
+      <c r="I38" s="7">
+        <v>159456</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="H38" s="7">
-        <v>6</v>
-      </c>
-      <c r="I38" s="7">
-        <v>3825</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>522</v>
+      </c>
+      <c r="N38" s="7">
+        <v>347984</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="M38" s="7">
-        <v>10</v>
-      </c>
-      <c r="N38" s="7">
-        <v>6279</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>231</v>
@@ -4196,13 +4196,13 @@
         <v>344868</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H39" s="7">
         <v>475</v>
@@ -4211,13 +4211,13 @@
         <v>320269</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M39" s="7">
         <v>993</v>
@@ -4226,13 +4226,13 @@
         <v>665137</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4253,7 +4253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CB348A-CF2C-4C0F-B5A0-54A78F1A843D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C4094D-35D6-40A5-BF56-B7C5C673399C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4371,253 +4371,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4518</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="H4" s="7">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7">
-        <v>6049</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M4" s="7">
-        <v>16</v>
-      </c>
-      <c r="N4" s="7">
-        <v>10567</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>44529</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>49785</v>
+        <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="N5" s="7">
-        <v>94314</v>
+        <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>250</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D6" s="7">
-        <v>45508</v>
+        <v>2156</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="H6" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>42639</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="M6" s="7">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>88147</v>
+        <v>2156</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>652</v>
+        <v>8833</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>7328</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>62</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N7" s="7">
-        <v>652</v>
+        <v>16160</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>248</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>1983</v>
+        <v>3501</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>695</v>
+        <v>4615</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>254</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N8" s="7">
-        <v>2678</v>
+        <v>8117</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,306 +4626,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>97190</v>
+        <v>14490</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
-        <v>150</v>
+        <v>14</v>
       </c>
       <c r="I9" s="7">
-        <v>99168</v>
+        <v>11943</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M9" s="7">
-        <v>295</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7">
-        <v>196358</v>
+        <v>26433</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>3201</v>
+        <v>1321</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>4368</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>7569</v>
+        <v>1321</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>26242</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>12</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>30341</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="M11" s="7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N11" s="7">
-        <v>56584</v>
+        <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>27410</v>
+        <v>3201</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="H12" s="7">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>18973</v>
+        <v>4368</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="M12" s="7">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="N12" s="7">
-        <v>46383</v>
+        <v>7569</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>293</v>
+        <v>91</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>1321</v>
+        <v>26242</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>30341</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="N13" s="7">
-        <v>1321</v>
+        <v>56584</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>27410</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>18973</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>46383</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>44</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>45</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4940,13 @@
         <v>58174</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H15" s="7">
         <v>75</v>
@@ -4955,13 +4955,13 @@
         <v>53683</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M15" s="7">
         <v>160</v>
@@ -4970,270 +4970,270 @@
         <v>111857</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>4659</v>
+        <v>652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>100</v>
+        <v>291</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>301</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="H16" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>10786</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>303</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>305</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>15445</v>
+        <v>652</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>64</v>
+        <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>46457</v>
+        <v>1983</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>50714</v>
+        <v>695</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>312</v>
+        <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="M17" s="7">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="N17" s="7">
-        <v>97170</v>
+        <v>2678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7">
-        <v>39925</v>
+        <v>4518</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="H18" s="7">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I18" s="7">
-        <v>29009</v>
+        <v>6049</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="N18" s="7">
-        <v>68933</v>
+        <v>10567</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>44529</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>309</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>49785</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>141</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>94314</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>316</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D20" s="7">
-        <v>1345</v>
+        <v>45508</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="I20" s="7">
-        <v>818</v>
+        <v>42639</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="N20" s="7">
-        <v>2164</v>
+        <v>88147</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,54 +5242,54 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="D21" s="7">
-        <v>92386</v>
+        <v>97190</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H21" s="7">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="I21" s="7">
-        <v>91327</v>
+        <v>99168</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M21" s="7">
-        <v>244</v>
+        <v>295</v>
       </c>
       <c r="N21" s="7">
-        <v>183712</v>
+        <v>196358</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5298,250 +5298,250 @@
         <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>2156</v>
+        <v>1261</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>333</v>
+        <v>122</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M22" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22" s="7">
-        <v>2156</v>
+        <v>1917</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>44</v>
+        <v>329</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>8833</v>
+        <v>1483</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>338</v>
+        <v>266</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>339</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I23" s="7">
-        <v>7328</v>
+        <v>1109</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>342</v>
+        <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="M23" s="7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="N23" s="7">
-        <v>16160</v>
+        <v>2592</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D24" s="7">
-        <v>3501</v>
+        <v>6161</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
       </c>
       <c r="I24" s="7">
-        <v>4615</v>
+        <v>3015</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="M24" s="7">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>8117</v>
+        <v>9176</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="7">
         <v>40</v>
       </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>24584</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>44</v>
+        <v>346</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>356</v>
+        <v>153</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>33155</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>45</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>57738</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>44</v>
+        <v>351</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>352</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>35084</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>44</v>
+        <v>354</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>355</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>356</v>
       </c>
       <c r="H26" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I26" s="7">
-        <v>0</v>
+        <v>27915</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>44</v>
+        <v>357</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="N26" s="7">
-        <v>0</v>
+        <v>62998</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>44</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,49 +5550,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14490</v>
+        <v>68573</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H27" s="7">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="I27" s="7">
-        <v>11943</v>
+        <v>65849</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M27" s="7">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="N27" s="7">
-        <v>26433</v>
+        <v>134421</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5603,244 +5603,244 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>6161</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>358</v>
+        <v>11</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>359</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="H28" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I28" s="7">
-        <v>3015</v>
+        <v>0</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>361</v>
+        <v>11</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>362</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M28" s="7">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N28" s="7">
-        <v>9176</v>
+        <v>0</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>364</v>
+        <v>11</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D29" s="7">
-        <v>24584</v>
+        <v>1345</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>818</v>
+      </c>
+      <c r="J29" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H29" s="7">
-        <v>51</v>
-      </c>
-      <c r="I29" s="7">
-        <v>33155</v>
-      </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="M29" s="7">
+        <v>3</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2164</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="M29" s="7">
-        <v>91</v>
-      </c>
-      <c r="N29" s="7">
-        <v>57738</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D30" s="7">
-        <v>35084</v>
+        <v>4659</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H30" s="7">
+        <v>13</v>
+      </c>
+      <c r="I30" s="7">
+        <v>10786</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>20</v>
+      </c>
+      <c r="N30" s="7">
+        <v>15445</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="P30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="H30" s="7">
-        <v>42</v>
-      </c>
-      <c r="I30" s="7">
-        <v>27915</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="M30" s="7">
-        <v>97</v>
-      </c>
-      <c r="N30" s="7">
-        <v>62998</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C31" s="7">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D31" s="7">
-        <v>1261</v>
+        <v>46457</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>186</v>
+        <v>378</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>44</v>
+        <v>379</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H31" s="7">
+        <v>65</v>
+      </c>
+      <c r="I31" s="7">
+        <v>50714</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="M31" s="7">
+        <v>129</v>
+      </c>
+      <c r="N31" s="7">
+        <v>97170</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>656</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="M31" s="7">
-        <v>3</v>
-      </c>
-      <c r="N31" s="7">
-        <v>1917</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="D32" s="7">
-        <v>1483</v>
+        <v>39925</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>271</v>
+        <v>386</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>44</v>
+        <v>387</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H32" s="7">
+        <v>38</v>
+      </c>
+      <c r="I32" s="7">
+        <v>29009</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="H32" s="7">
-        <v>2</v>
-      </c>
-      <c r="I32" s="7">
-        <v>1109</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>391</v>
       </c>
       <c r="M32" s="7">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="N32" s="7">
-        <v>2592</v>
+        <v>68933</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>392</v>
@@ -5858,49 +5858,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="D33" s="7">
-        <v>68573</v>
+        <v>92386</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H33" s="7">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="I33" s="7">
-        <v>65849</v>
+        <v>91327</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M33" s="7">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="N33" s="7">
-        <v>134421</v>
+        <v>183712</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,247 +5911,247 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="D34" s="7">
-        <v>20695</v>
+        <v>3234</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>395</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>61</v>
+        <v>396</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>396</v>
+        <v>56</v>
       </c>
       <c r="H34" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>24218</v>
+        <v>656</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>397</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>6</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3890</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="M34" s="7">
-        <v>64</v>
-      </c>
-      <c r="N34" s="7">
-        <v>44913</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>219</v>
+        <v>7</v>
       </c>
       <c r="D35" s="7">
-        <v>150644</v>
+        <v>4812</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="H35" s="7">
+        <v>4</v>
+      </c>
+      <c r="I35" s="7">
+        <v>2622</v>
+      </c>
+      <c r="J35" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="H35" s="7">
-        <v>241</v>
-      </c>
-      <c r="I35" s="7">
-        <v>171322</v>
-      </c>
-      <c r="J35" s="7" t="s">
+      <c r="M35" s="7">
+        <v>11</v>
+      </c>
+      <c r="N35" s="7">
+        <v>7433</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="M35" s="7">
-        <v>460</v>
-      </c>
-      <c r="N35" s="7">
-        <v>321966</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="D36" s="7">
-        <v>151429</v>
+        <v>20695</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="H36" s="7">
+        <v>33</v>
+      </c>
+      <c r="I36" s="7">
+        <v>24218</v>
+      </c>
+      <c r="J36" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="M36" s="7">
+        <v>64</v>
+      </c>
+      <c r="N36" s="7">
+        <v>44913</v>
+      </c>
+      <c r="O36" s="7" t="s">
         <v>413</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="H36" s="7">
-        <v>178</v>
-      </c>
-      <c r="I36" s="7">
-        <v>123151</v>
-      </c>
-      <c r="J36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="M36" s="7">
-        <v>398</v>
-      </c>
-      <c r="N36" s="7">
-        <v>274579</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C37" s="7">
-        <v>5</v>
+        <v>219</v>
       </c>
       <c r="D37" s="7">
-        <v>3234</v>
+        <v>150644</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="H37" s="7">
+        <v>241</v>
+      </c>
+      <c r="I37" s="7">
+        <v>171322</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="M37" s="7">
+        <v>460</v>
+      </c>
+      <c r="N37" s="7">
+        <v>321966</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1</v>
-      </c>
-      <c r="I37" s="7">
-        <v>656</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M37" s="7">
-        <v>6</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3890</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="P37" s="7" t="s">
         <v>423</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C38" s="7">
-        <v>7</v>
+        <v>220</v>
       </c>
       <c r="D38" s="7">
-        <v>4812</v>
+        <v>151429</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="H38" s="7">
+        <v>178</v>
+      </c>
+      <c r="I38" s="7">
+        <v>123151</v>
+      </c>
+      <c r="J38" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="H38" s="7">
-        <v>4</v>
-      </c>
-      <c r="I38" s="7">
-        <v>2622</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="K38" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="L38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>398</v>
+      </c>
+      <c r="N38" s="7">
+        <v>274579</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="M38" s="7">
-        <v>11</v>
-      </c>
-      <c r="N38" s="7">
-        <v>7433</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="P38" s="7" t="s">
         <v>432</v>
@@ -6172,13 +6172,13 @@
         <v>330813</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H39" s="7">
         <v>457</v>
@@ -6187,13 +6187,13 @@
         <v>321969</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M39" s="7">
         <v>939</v>
@@ -6202,13 +6202,13 @@
         <v>652782</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6229,7 +6229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50909BE9-14FC-49DB-BAFA-F4C54A11C81C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D709A938-802B-46EB-8B79-DFFBB94152F2}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6347,253 +6347,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3630</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="H4" s="7">
-        <v>5</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3267</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M4" s="7">
-        <v>10</v>
-      </c>
-      <c r="N4" s="7">
-        <v>6897</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>27430</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>442</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>443</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="H5" s="7">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>36330</v>
+        <v>1023</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>446</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="M5" s="7">
-        <v>98</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>63759</v>
+        <v>1023</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>449</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>108</v>
+        <v>1</v>
       </c>
       <c r="D6" s="7">
-        <v>75872</v>
+        <v>1046</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>452</v>
+        <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="H6" s="7">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>63670</v>
+        <v>1803</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>455</v>
+        <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="M6" s="7">
-        <v>203</v>
+        <v>3</v>
       </c>
       <c r="N6" s="7">
-        <v>139542</v>
+        <v>2849</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>458</v>
+        <v>371</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>4274</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>44</v>
+        <v>448</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>45</v>
+        <v>449</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>617</v>
+        <v>6684</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>54</v>
+        <v>451</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>452</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="N7" s="7">
-        <v>617</v>
+        <v>10957</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>48</v>
+        <v>454</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>44</v>
+        <v>455</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>717</v>
+        <v>8994</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>261</v>
+        <v>457</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>458</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4416</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="M8" s="7">
+        <v>16</v>
+      </c>
+      <c r="N8" s="7">
+        <v>13411</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="H8" s="7">
-        <v>4</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2745</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>465</v>
-      </c>
-      <c r="M8" s="7">
-        <v>5</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3463</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6602,306 +6602,306 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7">
-        <v>107649</v>
+        <v>14314</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="I9" s="7">
-        <v>106630</v>
+        <v>13926</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M9" s="7">
-        <v>317</v>
+        <v>32</v>
       </c>
       <c r="N9" s="7">
-        <v>214278</v>
+        <v>28240</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>725</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>436</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1632</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="M10" s="7">
-        <v>3</v>
-      </c>
-      <c r="N10" s="7">
-        <v>2357</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>17253</v>
+        <v>764</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>473</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>16724</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>475</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>476</v>
+        <v>12</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="M11" s="7">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>33977</v>
+        <v>764</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>479</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>480</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>39898</v>
+        <v>725</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>482</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="H12" s="7">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>37872</v>
+        <v>1632</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>485</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="M12" s="7">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>77770</v>
+        <v>2357</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>487</v>
+        <v>405</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>488</v>
+        <v>92</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>17253</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>477</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>478</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>16724</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>480</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>481</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="M13" s="7">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N13" s="7">
-        <v>0</v>
+        <v>33977</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>44</v>
+        <v>483</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>484</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7">
-        <v>764</v>
+        <v>39898</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>44</v>
+        <v>487</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>37872</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>489</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>45</v>
+        <v>490</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>491</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="N14" s="7">
-        <v>764</v>
+        <v>77770</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>44</v>
+        <v>493</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>269</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6916,13 +6916,13 @@
         <v>58640</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H15" s="7">
         <v>80</v>
@@ -6931,13 +6931,13 @@
         <v>56228</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M15" s="7">
         <v>156</v>
@@ -6946,270 +6946,270 @@
         <v>114868</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>6013</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>617</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>1</v>
+      </c>
+      <c r="N16" s="7">
+        <v>617</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>497</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="H16" s="7">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7">
-        <v>8083</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="M16" s="7">
-        <v>20</v>
-      </c>
-      <c r="N16" s="7">
-        <v>14095</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>31151</v>
+        <v>717</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>505</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>506</v>
+        <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>498</v>
       </c>
       <c r="H17" s="7">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="I17" s="7">
-        <v>52148</v>
+        <v>2745</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>508</v>
+        <v>291</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="M17" s="7">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="N17" s="7">
-        <v>83299</v>
+        <v>3463</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>510</v>
+        <v>364</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>25</v>
+        <v>501</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="D18" s="7">
-        <v>61355</v>
+        <v>3630</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>513</v>
+        <v>472</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="H18" s="7">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="I18" s="7">
-        <v>45932</v>
+        <v>3267</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>516</v>
+        <v>374</v>
       </c>
       <c r="M18" s="7">
-        <v>142</v>
+        <v>10</v>
       </c>
       <c r="N18" s="7">
-        <v>107288</v>
+        <v>6897</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>518</v>
+        <v>98</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C19" s="7">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7">
-        <v>2300</v>
+        <v>27430</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>295</v>
+        <v>509</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>266</v>
+        <v>510</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="I19" s="7">
-        <v>792</v>
+        <v>36330</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>44</v>
+        <v>513</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="M19" s="7">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="N19" s="7">
-        <v>3092</v>
+        <v>63759</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>435</v>
+        <v>517</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="D20" s="7">
-        <v>713</v>
+        <v>75872</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>518</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>457</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="H20" s="7">
+        <v>95</v>
+      </c>
+      <c r="I20" s="7">
+        <v>63670</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="M20" s="7">
+        <v>203</v>
+      </c>
+      <c r="N20" s="7">
+        <v>139542</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>525</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>638</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>526</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1351</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,306 +7218,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="D21" s="7">
-        <v>101532</v>
+        <v>107649</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H21" s="7">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="I21" s="7">
-        <v>107592</v>
+        <v>106630</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M21" s="7">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="N21" s="7">
-        <v>209124</v>
+        <v>214278</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>1046</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>529</v>
+        <v>11</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" s="7">
-        <v>1803</v>
+        <v>0</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>531</v>
+        <v>11</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>532</v>
+        <v>341</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N22" s="7">
-        <v>2849</v>
+        <v>0</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>533</v>
+        <v>11</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>301</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>4274</v>
+        <v>1650</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>536</v>
+        <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="H23" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I23" s="7">
-        <v>6684</v>
+        <v>0</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>538</v>
+        <v>11</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>539</v>
+        <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>540</v>
+        <v>341</v>
       </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>10957</v>
+        <v>1650</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>541</v>
+        <v>398</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>542</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>8994</v>
+        <v>1288</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>452</v>
+        <v>531</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>544</v>
+        <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="H24" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24" s="7">
-        <v>4416</v>
+        <v>2603</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>546</v>
+        <v>134</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="M24" s="7">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>13411</v>
+        <v>3891</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>23927</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>44</v>
+        <v>538</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>539</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
       <c r="H25" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I25" s="7">
-        <v>0</v>
+        <v>23275</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>44</v>
+        <v>541</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>45</v>
+        <v>542</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>553</v>
+        <v>64</v>
       </c>
       <c r="M25" s="7">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N25" s="7">
-        <v>0</v>
+        <v>47202</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>44</v>
+        <v>393</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>543</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>51078</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>44</v>
+        <v>545</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>546</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="H26" s="7">
+        <v>71</v>
+      </c>
+      <c r="I26" s="7">
+        <v>45832</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="M26" s="7">
+        <v>143</v>
+      </c>
+      <c r="N26" s="7">
+        <v>96910</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1023</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>555</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1023</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7526,49 +7526,49 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="D27" s="7">
-        <v>14314</v>
+        <v>77943</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H27" s="7">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="I27" s="7">
-        <v>13926</v>
+        <v>71710</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M27" s="7">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="N27" s="7">
-        <v>28240</v>
+        <v>149653</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,250 +7579,250 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="7">
-        <v>1288</v>
+        <v>2300</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>559</v>
+        <v>259</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>44</v>
+        <v>296</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7">
+        <v>792</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="M28" s="7">
         <v>4</v>
       </c>
-      <c r="I28" s="7">
-        <v>2603</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="M28" s="7">
-        <v>6</v>
-      </c>
       <c r="N28" s="7">
-        <v>3891</v>
+        <v>3092</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>565</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C29" s="7">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D29" s="7">
-        <v>23927</v>
+        <v>713</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>566</v>
+        <v>296</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>567</v>
+        <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="H29" s="7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="I29" s="7">
-        <v>23275</v>
+        <v>638</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>569</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>570</v>
+        <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>67</v>
+        <v>559</v>
       </c>
       <c r="M29" s="7">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="N29" s="7">
-        <v>47202</v>
+        <v>1351</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>323</v>
+        <v>560</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>571</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C30" s="7">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="D30" s="7">
-        <v>51078</v>
+        <v>6013</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="H30" s="7">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="I30" s="7">
-        <v>45832</v>
+        <v>8083</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>566</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="M30" s="7">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="N30" s="7">
-        <v>96910</v>
+        <v>14095</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C31" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D31" s="7">
-        <v>0</v>
+        <v>31151</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>44</v>
+        <v>571</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>45</v>
+        <v>572</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>581</v>
+        <v>253</v>
       </c>
       <c r="H31" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I31" s="7">
-        <v>0</v>
+        <v>52148</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>44</v>
+        <v>573</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>45</v>
+        <v>574</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>362</v>
+        <v>575</v>
       </c>
       <c r="M31" s="7">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="N31" s="7">
-        <v>0</v>
+        <v>83299</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>44</v>
+        <v>576</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="D32" s="7">
-        <v>1650</v>
+        <v>61355</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="H32" s="7">
+        <v>60</v>
+      </c>
+      <c r="I32" s="7">
+        <v>45932</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="M32" s="7">
+        <v>142</v>
+      </c>
+      <c r="N32" s="7">
+        <v>107288</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="M32" s="7">
-        <v>2</v>
-      </c>
-      <c r="N32" s="7">
-        <v>1650</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>585</v>
@@ -7834,49 +7834,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="D33" s="7">
-        <v>77943</v>
+        <v>101532</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H33" s="7">
-        <v>111</v>
+        <v>141</v>
       </c>
       <c r="I33" s="7">
-        <v>71710</v>
+        <v>107592</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M33" s="7">
-        <v>220</v>
+        <v>278</v>
       </c>
       <c r="N33" s="7">
-        <v>149653</v>
+        <v>209124</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -7887,250 +7887,250 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="D34" s="7">
-        <v>12702</v>
+        <v>2300</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="H34" s="7">
+        <v>2</v>
+      </c>
+      <c r="I34" s="7">
+        <v>1409</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H34" s="7">
-        <v>24</v>
-      </c>
-      <c r="I34" s="7">
-        <v>17388</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>5</v>
+      </c>
+      <c r="N34" s="7">
+        <v>3709</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="M34" s="7">
-        <v>42</v>
-      </c>
-      <c r="N34" s="7">
-        <v>30089</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>589</v>
-      </c>
       <c r="P34" s="7" t="s">
-        <v>590</v>
+        <v>397</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>591</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C35" s="7">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="D35" s="7">
-        <v>104035</v>
+        <v>3845</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="H35" s="7">
+        <v>6</v>
+      </c>
+      <c r="I35" s="7">
+        <v>4406</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" s="7">
+        <v>11</v>
+      </c>
+      <c r="N35" s="7">
+        <v>8251</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>592</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="P35" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>593</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>594</v>
-      </c>
-      <c r="H35" s="7">
-        <v>193</v>
-      </c>
-      <c r="I35" s="7">
-        <v>135159</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="M35" s="7">
-        <v>336</v>
-      </c>
-      <c r="N35" s="7">
-        <v>239194</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7">
-        <v>325</v>
+        <v>18</v>
       </c>
       <c r="D36" s="7">
-        <v>237197</v>
+        <v>12702</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>39</v>
+        <v>595</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>602</v>
+        <v>265</v>
       </c>
       <c r="H36" s="7">
-        <v>284</v>
+        <v>24</v>
       </c>
       <c r="I36" s="7">
-        <v>197723</v>
+        <v>17388</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>603</v>
+        <v>370</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="M36" s="7">
-        <v>609</v>
+        <v>42</v>
       </c>
       <c r="N36" s="7">
-        <v>434920</v>
+        <v>30089</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C37" s="7">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="D37" s="7">
-        <v>2300</v>
+        <v>104035</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>427</v>
+        <v>600</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>423</v>
+        <v>601</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="H37" s="7">
+        <v>193</v>
+      </c>
+      <c r="I37" s="7">
+        <v>135159</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="M37" s="7">
+        <v>336</v>
+      </c>
+      <c r="N37" s="7">
+        <v>239194</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="H37" s="7">
-        <v>2</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1409</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="M37" s="7">
-        <v>5</v>
-      </c>
-      <c r="N37" s="7">
-        <v>3709</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C38" s="7">
-        <v>5</v>
+        <v>325</v>
       </c>
       <c r="D38" s="7">
-        <v>3845</v>
+        <v>237197</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="H38" s="7">
+        <v>284</v>
+      </c>
+      <c r="I38" s="7">
+        <v>197723</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="M38" s="7">
+        <v>609</v>
+      </c>
+      <c r="N38" s="7">
+        <v>434920</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="H38" s="7">
-        <v>6</v>
-      </c>
-      <c r="I38" s="7">
-        <v>4406</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="M38" s="7">
-        <v>11</v>
-      </c>
-      <c r="N38" s="7">
-        <v>8251</v>
-      </c>
-      <c r="O38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>614</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>615</v>
@@ -8148,13 +8148,13 @@
         <v>360078</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H39" s="7">
         <v>509</v>
@@ -8163,13 +8163,13 @@
         <v>356085</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="M39" s="7">
         <v>1003</v>
@@ -8178,13 +8178,13 @@
         <v>716163</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A02-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AB510DF-8768-4F2A-AA9D-B9D4B99CB337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6832BC0-2D54-4B7D-A3A9-DCDF7C86C514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8FE0DE62-23F9-4CCD-93FB-79C6C6F7878C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7BABA999-7D5E-4278-A4CF-AF002EC844E6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="621">
   <si>
     <t>Menores según frecuencia de haber podido correr bien en 2007 (Tasa respuesta: 47,2%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Muchísimo</t>
@@ -76,28 +76,28 @@
     <t>56,49%</t>
   </si>
   <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
   </si>
   <si>
     <t>31,98%</t>
   </si>
   <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>54,53%</t>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>59,18%</t>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>60,64%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -106,16 +106,16 @@
     <t>43,51%</t>
   </si>
   <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>68,18%</t>
   </si>
   <si>
     <t>51,38%</t>
   </si>
   <si>
-    <t>30,6%</t>
+    <t>30,02%</t>
   </si>
   <si>
     <t>73,38%</t>
@@ -124,10 +124,10 @@
     <t>47,61%</t>
   </si>
   <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
   </si>
   <si>
     <t>Moderadamente</t>
@@ -145,19 +145,19 @@
     <t>16,63%</t>
   </si>
   <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
   </si>
   <si>
     <t>8,67%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
   </si>
   <si>
     <t>Poco</t>
@@ -175,1678 +175,1729 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>50,68%</t>
   </si>
   <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>60,68%</t>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
   </si>
   <si>
     <t>49,57%</t>
   </si>
   <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
   </si>
   <si>
     <t>50,21%</t>
   </si>
   <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
   </si>
   <si>
     <t>42,41%</t>
   </si>
   <si>
-    <t>32,69%</t>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>54,46%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>52,89%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>55,16%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
+  </si>
+  <si>
+    <t>34,45%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>49,79%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
   </si>
   <si>
     <t>52,32%</t>
   </si>
   <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 44,74%)</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>68,19%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>50,59%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>49,28%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido correr bien en 2016 (Tasa respuesta: 47,18%)</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>68,04%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>34,8%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>56,33%</t>
+  </si>
+  <si>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>42,69%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
   </si>
   <si>
     <t>2,88%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>50,61%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>35,8%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>55,16%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>54,19%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>50,44%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>61,84%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2012 (Tasa respuesta: 44,74%)</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>56,74%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>58,28%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>46,82%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>50,74%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>58,19%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>45,04%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>49,32%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido correr bien en 2015 (Tasa respuesta: 47,18%)</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>30,48%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>56,37%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>68,04%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>41,31%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>34,73%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>51,9%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>42,69%</t>
-  </si>
-  <si>
-    <t>34,96%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,57%</t>
+    <t>2,02%</t>
   </si>
   <si>
     <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
   </si>
   <si>
     <t>0,52%</t>
@@ -2261,7 +2312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385AF9E2-5A8F-4120-847B-B69EB33B1268}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F4C28C9-3260-48DE-828A-863ED56CBBD9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2903,7 +2954,7 @@
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2927,13 +2978,13 @@
         <v>635</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,7 +3040,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3001,13 +3052,13 @@
         <v>58413</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
@@ -3016,13 +3067,13 @@
         <v>56643</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>177</v>
@@ -3031,13 +3082,13 @@
         <v>115057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3103,13 @@
         <v>34920</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H17" s="7">
         <v>68</v>
@@ -3067,13 +3118,13 @@
         <v>42584</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M17" s="7">
         <v>121</v>
@@ -3082,13 +3133,13 @@
         <v>77504</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3154,13 @@
         <v>3962</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H18" s="7">
         <v>6</v>
@@ -3118,13 +3169,13 @@
         <v>3589</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -3133,13 +3184,13 @@
         <v>7551</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,7 +3211,7 @@
         <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -3169,13 +3220,13 @@
         <v>1188</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3184,13 +3235,13 @@
         <v>1188</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3205,13 +3256,13 @@
         <v>1940</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3226,7 +3277,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3238,10 +3289,10 @@
         <v>78</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3297,7 +3348,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3309,13 +3360,13 @@
         <v>33608</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="H22" s="7">
         <v>54</v>
@@ -3324,13 +3375,13 @@
         <v>33370</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -3339,13 +3390,13 @@
         <v>66977</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3360,13 +3411,13 @@
         <v>30036</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>38</v>
@@ -3375,13 +3426,13 @@
         <v>22835</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>85</v>
@@ -3390,13 +3441,13 @@
         <v>52870</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3411,13 +3462,13 @@
         <v>1932</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -3426,13 +3477,13 @@
         <v>2215</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -3441,13 +3492,13 @@
         <v>4147</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,7 +3519,7 @@
         <v>32</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -3477,13 +3528,13 @@
         <v>2637</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>66</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -3492,13 +3543,13 @@
         <v>2637</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,7 +3570,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3534,7 +3585,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3549,7 +3600,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,7 +3656,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3617,13 +3668,13 @@
         <v>54746</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>52</v>
@@ -3632,13 +3683,13 @@
         <v>40358</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>132</v>
@@ -3647,13 +3698,13 @@
         <v>95103</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3719,13 @@
         <v>35134</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>55</v>
@@ -3683,13 +3734,13 @@
         <v>42016</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>105</v>
@@ -3698,13 +3749,13 @@
         <v>77150</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,13 +3770,13 @@
         <v>6117</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -3734,13 +3785,13 @@
         <v>8818</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>21</v>
@@ -3749,13 +3800,13 @@
         <v>14935</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3821,13 @@
         <v>1902</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>109</v>
+        <v>186</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3791,7 +3842,7 @@
         <v>32</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -3800,13 +3851,13 @@
         <v>1902</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3872,13 @@
         <v>1344</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3842,7 +3893,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -3851,13 +3902,13 @@
         <v>1344</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>110</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3976,13 @@
         <v>188528</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>237</v>
@@ -3940,13 +3991,13 @@
         <v>159456</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="M34" s="7">
         <v>522</v>
@@ -3955,13 +4006,13 @@
         <v>347984</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>57</v>
+        <v>202</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +4027,13 @@
         <v>134513</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="H35" s="7">
         <v>204</v>
@@ -3991,13 +4042,13 @@
         <v>137786</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>200</v>
+        <v>135</v>
       </c>
       <c r="M35" s="7">
         <v>404</v>
@@ -4006,13 +4057,13 @@
         <v>272300</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,13 +4078,13 @@
         <v>15454</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="H36" s="7">
         <v>28</v>
@@ -4042,13 +4093,13 @@
         <v>19202</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="M36" s="7">
         <v>51</v>
@@ -4057,13 +4108,13 @@
         <v>34655</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4129,13 @@
         <v>2454</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -4093,13 +4144,13 @@
         <v>3825</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>216</v>
+        <v>75</v>
       </c>
       <c r="M37" s="7">
         <v>10</v>
@@ -4108,13 +4159,13 @@
         <v>6279</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4180,13 @@
         <v>3919</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -4150,7 +4201,7 @@
         <v>32</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -4159,13 +4210,13 @@
         <v>3919</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,7 +4272,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -4242,7 +4293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E31BB0-E609-45BA-990B-E4C9B83B4547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874CE7F6-6960-4FA3-8FBA-8E877ED4FD80}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4259,7 +4310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4366,13 +4417,13 @@
         <v>3501</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -4381,13 +4432,13 @@
         <v>4615</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -4396,13 +4447,13 @@
         <v>8117</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4468,13 @@
         <v>8833</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -4432,13 +4483,13 @@
         <v>7328</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -4447,13 +4498,13 @@
         <v>16160</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,13 +4519,13 @@
         <v>2156</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4489,7 +4540,7 @@
         <v>32</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -4498,13 +4549,13 @@
         <v>2156</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4525,7 +4576,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4540,7 +4591,7 @@
         <v>32</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4555,7 +4606,7 @@
         <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,7 +4627,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4591,7 +4642,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4606,7 +4657,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4674,13 +4725,13 @@
         <v>27410</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>27</v>
@@ -4689,13 +4740,13 @@
         <v>18973</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>67</v>
@@ -4704,13 +4755,13 @@
         <v>46383</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4725,13 +4776,13 @@
         <v>26242</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>42</v>
@@ -4740,13 +4791,13 @@
         <v>30341</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>80</v>
@@ -4755,13 +4806,13 @@
         <v>56584</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4827,13 @@
         <v>3201</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -4791,13 +4842,13 @@
         <v>4368</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>274</v>
+        <v>34</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -4806,13 +4857,13 @@
         <v>7569</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,7 +4884,7 @@
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4848,7 +4899,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -4863,7 +4914,7 @@
         <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4878,13 +4929,13 @@
         <v>1321</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4899,7 +4950,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4908,13 +4959,13 @@
         <v>1321</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,7 +5021,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4982,13 +5033,13 @@
         <v>45508</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="H16" s="7">
         <v>66</v>
@@ -4997,13 +5048,13 @@
         <v>42639</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="M16" s="7">
         <v>133</v>
@@ -5012,13 +5063,13 @@
         <v>88147</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5033,13 +5084,13 @@
         <v>44529</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>74</v>
@@ -5048,13 +5099,13 @@
         <v>49785</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="M17" s="7">
         <v>141</v>
@@ -5063,13 +5114,13 @@
         <v>94314</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5084,13 +5135,13 @@
         <v>4518</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -5099,13 +5150,13 @@
         <v>6049</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -5114,13 +5165,13 @@
         <v>10567</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5135,13 +5186,13 @@
         <v>1983</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5150,13 +5201,13 @@
         <v>695</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -5165,13 +5216,13 @@
         <v>2678</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5186,13 +5237,13 @@
         <v>652</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5207,7 +5258,7 @@
         <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5216,13 +5267,13 @@
         <v>652</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,7 +5329,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5290,13 +5341,13 @@
         <v>35084</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -5305,13 +5356,13 @@
         <v>27915</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>324</v>
+        <v>56</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="M22" s="7">
         <v>97</v>
@@ -5320,13 +5371,13 @@
         <v>62998</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5341,13 +5392,13 @@
         <v>24584</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H23" s="7">
         <v>51</v>
@@ -5356,13 +5407,13 @@
         <v>33155</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M23" s="7">
         <v>91</v>
@@ -5371,13 +5422,13 @@
         <v>57738</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5392,13 +5443,13 @@
         <v>6161</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>339</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -5407,13 +5458,13 @@
         <v>3015</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -5422,13 +5473,13 @@
         <v>9176</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,13 +5494,13 @@
         <v>1483</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="H25" s="7">
         <v>2</v>
@@ -5458,13 +5509,13 @@
         <v>1109</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -5473,13 +5524,13 @@
         <v>2592</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>185</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,13 +5545,13 @@
         <v>1261</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -5509,13 +5560,13 @@
         <v>656</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5524,13 +5575,13 @@
         <v>1917</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>355</v>
+        <v>225</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>273</v>
+        <v>361</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,7 +5637,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -5598,13 +5649,13 @@
         <v>39925</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>357</v>
+        <v>268</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="H28" s="7">
         <v>38</v>
@@ -5613,13 +5664,13 @@
         <v>29009</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M28" s="7">
         <v>92</v>
@@ -5628,13 +5679,13 @@
         <v>68933</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +5700,13 @@
         <v>46457</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="H29" s="7">
         <v>65</v>
@@ -5664,13 +5715,13 @@
         <v>50714</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M29" s="7">
         <v>129</v>
@@ -5679,13 +5730,13 @@
         <v>97170</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,13 +5751,13 @@
         <v>4659</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="H30" s="7">
         <v>13</v>
@@ -5715,13 +5766,13 @@
         <v>10786</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -5730,13 +5781,13 @@
         <v>15445</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>112</v>
+        <v>385</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5751,13 +5802,13 @@
         <v>1345</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -5766,13 +5817,13 @@
         <v>818</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="M31" s="7">
         <v>3</v>
@@ -5781,13 +5832,13 @@
         <v>2164</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>384</v>
+        <v>322</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5808,7 +5859,7 @@
         <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -5823,7 +5874,7 @@
         <v>32</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>218</v>
+        <v>393</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -5838,7 +5889,7 @@
         <v>32</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5906,13 +5957,13 @@
         <v>151429</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="H34" s="7">
         <v>178</v>
@@ -5921,13 +5972,13 @@
         <v>123151</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M34" s="7">
         <v>398</v>
@@ -5936,13 +5987,13 @@
         <v>274579</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -5957,13 +6008,13 @@
         <v>150644</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>52</v>
+        <v>406</v>
       </c>
       <c r="H35" s="7">
         <v>241</v>
@@ -5972,13 +6023,13 @@
         <v>171322</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="M35" s="7">
         <v>460</v>
@@ -5987,13 +6038,13 @@
         <v>321966</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,13 +6059,13 @@
         <v>20695</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>405</v>
+        <v>147</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="H36" s="7">
         <v>33</v>
@@ -6023,13 +6074,13 @@
         <v>24218</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="M36" s="7">
         <v>64</v>
@@ -6038,13 +6089,13 @@
         <v>44913</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,13 +6110,13 @@
         <v>4812</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>415</v>
+        <v>115</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -6074,13 +6125,13 @@
         <v>2622</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
@@ -6089,13 +6140,13 @@
         <v>7433</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>420</v>
+        <v>229</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>301</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6161,13 @@
         <v>3234</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>219</v>
+        <v>428</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="H38" s="7">
         <v>1</v>
@@ -6125,13 +6176,13 @@
         <v>656</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="M38" s="7">
         <v>6</v>
@@ -6140,13 +6191,13 @@
         <v>3890</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>424</v>
+        <v>115</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>418</v>
+        <v>230</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,7 +6253,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -6223,7 +6274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C5FEF0-9DC1-46AD-89A8-A3AB488DCCFB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21ED8B30-E1FB-4727-9C40-56936135A5E1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6240,7 +6291,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6347,13 +6398,13 @@
         <v>8994</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -6362,13 +6413,13 @@
         <v>4416</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>363</v>
+        <v>436</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -6377,13 +6428,13 @@
         <v>13411</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6398,13 +6449,13 @@
         <v>4274</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -6413,13 +6464,13 @@
         <v>6684</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6428,13 +6479,13 @@
         <v>10957</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6449,13 +6500,13 @@
         <v>1046</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>103</v>
+        <v>451</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6464,13 +6515,13 @@
         <v>1803</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -6479,13 +6530,13 @@
         <v>2849</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6506,7 +6557,7 @@
         <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -6515,13 +6566,13 @@
         <v>1023</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -6530,13 +6581,13 @@
         <v>1023</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6557,7 +6608,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6572,7 +6623,7 @@
         <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6587,7 +6638,7 @@
         <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6655,13 +6706,13 @@
         <v>39898</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -6670,13 +6721,13 @@
         <v>37872</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="M10" s="7">
         <v>105</v>
@@ -6685,13 +6736,13 @@
         <v>77770</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6706,13 +6757,13 @@
         <v>17253</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="H11" s="7">
         <v>25</v>
@@ -6721,13 +6772,13 @@
         <v>16724</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>470</v>
+        <v>339</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -6736,13 +6787,13 @@
         <v>33977</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6757,13 +6808,13 @@
         <v>725</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>473</v>
+        <v>231</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6772,13 +6823,13 @@
         <v>1632</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -6787,13 +6838,13 @@
         <v>2357</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>477</v>
+        <v>426</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,13 +6859,13 @@
         <v>764</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>479</v>
+        <v>431</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6829,7 +6880,7 @@
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -6838,13 +6889,13 @@
         <v>764</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6865,7 +6916,7 @@
         <v>32</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6880,7 +6931,7 @@
         <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -6895,7 +6946,7 @@
         <v>32</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,7 +7002,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6963,13 +7014,13 @@
         <v>75872</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="H16" s="7">
         <v>95</v>
@@ -6978,13 +7029,13 @@
         <v>63670</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="M16" s="7">
         <v>203</v>
@@ -6993,13 +7044,13 @@
         <v>139542</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +7065,13 @@
         <v>27430</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="H17" s="7">
         <v>57</v>
@@ -7029,13 +7080,13 @@
         <v>36330</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M17" s="7">
         <v>98</v>
@@ -7044,13 +7095,13 @@
         <v>63759</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7065,13 +7116,13 @@
         <v>3630</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>425</v>
+        <v>510</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -7080,13 +7131,13 @@
         <v>3267</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>107</v>
+        <v>513</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -7095,13 +7146,13 @@
         <v>6897</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>180</v>
+        <v>516</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,13 +7167,13 @@
         <v>717</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>317</v>
+        <v>518</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -7131,13 +7182,13 @@
         <v>2745</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>115</v>
+        <v>519</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>424</v>
+        <v>318</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -7146,13 +7197,13 @@
         <v>3463</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>393</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7173,7 +7224,7 @@
         <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7182,13 +7233,13 @@
         <v>617</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>507</v>
+        <v>482</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7197,13 +7248,13 @@
         <v>617</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7259,7 +7310,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7271,13 +7322,13 @@
         <v>51078</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="H22" s="7">
         <v>71</v>
@@ -7286,13 +7337,13 @@
         <v>45832</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="M22" s="7">
         <v>143</v>
@@ -7301,13 +7352,13 @@
         <v>96910</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7373,13 @@
         <v>23927</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="H23" s="7">
         <v>36</v>
@@ -7337,13 +7388,13 @@
         <v>23275</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>394</v>
+        <v>538</v>
       </c>
       <c r="M23" s="7">
         <v>69</v>
@@ -7352,13 +7403,13 @@
         <v>47202</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7424,13 @@
         <v>1288</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -7388,13 +7439,13 @@
         <v>2603</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="M24" s="7">
         <v>6</v>
@@ -7403,13 +7454,13 @@
         <v>3891</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>382</v>
+        <v>547</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>535</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,13 +7475,13 @@
         <v>1650</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>374</v>
+        <v>549</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -7445,7 +7496,7 @@
         <v>32</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -7454,13 +7505,13 @@
         <v>1650</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>139</v>
+        <v>513</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>538</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,7 +7532,7 @@
         <v>32</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>539</v>
+        <v>553</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -7496,7 +7547,7 @@
         <v>32</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>537</v>
+        <v>551</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -7511,7 +7562,7 @@
         <v>32</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>540</v>
+        <v>554</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,7 +7618,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7579,13 +7630,13 @@
         <v>61355</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>541</v>
+        <v>555</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>543</v>
+        <v>557</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -7594,13 +7645,13 @@
         <v>45932</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>545</v>
+        <v>559</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="M28" s="7">
         <v>142</v>
@@ -7609,13 +7660,13 @@
         <v>107288</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>547</v>
+        <v>561</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>548</v>
+        <v>130</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>549</v>
+        <v>562</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,13 +7681,13 @@
         <v>31151</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>551</v>
+        <v>564</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>552</v>
+        <v>565</v>
       </c>
       <c r="H29" s="7">
         <v>68</v>
@@ -7645,13 +7696,13 @@
         <v>52148</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>553</v>
+        <v>566</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>554</v>
+        <v>567</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>555</v>
+        <v>568</v>
       </c>
       <c r="M29" s="7">
         <v>110</v>
@@ -7660,13 +7711,13 @@
         <v>83299</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>556</v>
+        <v>569</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>557</v>
+        <v>570</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>558</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7681,13 +7732,13 @@
         <v>6013</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -7696,13 +7747,13 @@
         <v>8083</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>348</v>
+        <v>574</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>563</v>
+        <v>576</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -7711,13 +7762,13 @@
         <v>14095</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>564</v>
+        <v>577</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>565</v>
+        <v>289</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7732,13 +7783,13 @@
         <v>713</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -7747,13 +7798,13 @@
         <v>638</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>568</v>
+        <v>213</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
@@ -7762,13 +7813,13 @@
         <v>1351</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7783,13 +7834,13 @@
         <v>2300</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -7798,13 +7849,13 @@
         <v>792</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -7813,13 +7864,13 @@
         <v>3092</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>219</v>
+        <v>428</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>104</v>
+        <v>586</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7887,13 +7938,13 @@
         <v>237197</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="H34" s="7">
         <v>284</v>
@@ -7902,13 +7953,13 @@
         <v>197723</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="M34" s="7">
         <v>609</v>
@@ -7917,13 +7968,13 @@
         <v>434920</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>520</v>
+        <v>593</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>581</v>
+        <v>594</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7938,13 +7989,13 @@
         <v>104035</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>583</v>
+        <v>596</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="H35" s="7">
         <v>193</v>
@@ -7953,13 +8004,13 @@
         <v>135159</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>585</v>
+        <v>598</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>497</v>
+        <v>599</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>586</v>
+        <v>600</v>
       </c>
       <c r="M35" s="7">
         <v>336</v>
@@ -7968,13 +8019,13 @@
         <v>239194</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>587</v>
+        <v>601</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>588</v>
+        <v>602</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>589</v>
+        <v>603</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7989,13 +8040,13 @@
         <v>12702</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>590</v>
+        <v>604</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>591</v>
+        <v>605</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>592</v>
+        <v>606</v>
       </c>
       <c r="H36" s="7">
         <v>24</v>
@@ -8004,13 +8055,13 @@
         <v>17388</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>593</v>
+        <v>607</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="M36" s="7">
         <v>42</v>
@@ -8019,13 +8070,13 @@
         <v>30089</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>565</v>
+        <v>610</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>595</v>
+        <v>611</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>596</v>
+        <v>612</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8040,13 +8091,13 @@
         <v>3845</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>597</v>
+        <v>613</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>598</v>
+        <v>228</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>570</v>
+        <v>286</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -8055,13 +8106,13 @@
         <v>4406</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>473</v>
+        <v>231</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>355</v>
+        <v>614</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>599</v>
+        <v>75</v>
       </c>
       <c r="M37" s="7">
         <v>11</v>
@@ -8070,13 +8121,13 @@
         <v>8251</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>601</v>
+        <v>229</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>111</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8091,13 +8142,13 @@
         <v>2300</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>539</v>
+        <v>618</v>
       </c>
       <c r="H38" s="7">
         <v>2</v>
@@ -8106,13 +8157,13 @@
         <v>1409</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="K38" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>314</v>
+        <v>619</v>
       </c>
       <c r="M38" s="7">
         <v>5</v>
@@ -8121,13 +8172,13 @@
         <v>3709</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>113</v>
+        <v>615</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8183,7 +8234,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
